--- a/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/security/RBAC_RESOURCE/report.query.all.xlsx
+++ b/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/security/RBAC_RESOURCE/report.query.all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-plugins-extension/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/security/RBAC_RESOURCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEA3DC5-5F8F-044F-BEC0-983410CD82B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363DFBE0-BFE4-CB41-8E09-C47407D20B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-50440" yWindow="-4660" windowWidth="39180" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>act.report.query-single</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -248,10 +244,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>/api/report/query-single</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>读取所有报表</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -264,10 +256,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>res.report.query-single</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>resource.ambient</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -275,21 +263,9 @@
     <t>c8bde280-7ab7-4905-9a13-bb1711e7655d</t>
   </si>
   <si>
-    <t>res.report.export-single</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>d2613ff1-fb27-4567-b401-28b791c0e4f1</t>
   </si>
   <si>
-    <t>act.report.export-single</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/report/export-single</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>导出单个报表</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -299,6 +275,60 @@
   </si>
   <si>
     <t>报表管理/单报表操作</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/report/single-generate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.report.query-page</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.report.single-generate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.report.single-export</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/report/query-page</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页读取报表实例</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>96365fee-cafc-4099-a6cf-d68a5f08f8f3</t>
+  </si>
+  <si>
+    <t>UNION</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.report.query-page</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.report.single-generate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.report.single-export</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>055dbb7a-40cf-461d-b73c-e4d1c1824359</t>
+  </si>
+  <si>
+    <t>/api/report/single-export/:key</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -875,19 +905,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K31"/>
+  <dimension ref="A2:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="3" width="54.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="38.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16" style="3" customWidth="1"/>
     <col min="6" max="6" width="38.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="2" customWidth="1"/>
@@ -959,7 +989,7 @@
         <v>56</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>10</v>
@@ -1040,10 +1070,10 @@
         <v>59</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>56</v>
@@ -1138,7 +1168,7 @@
         <v>60</v>
       </c>
       <c r="B20" s="9" t="str">
-        <f>A29</f>
+        <f>A30</f>
         <v>0629d704-d193-4be0-8e85-d015ab37be7e</v>
       </c>
       <c r="C20" s="9" t="str">
@@ -1149,13 +1179,13 @@
         <v>64</v>
       </c>
       <c r="E20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="G20" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="H20" s="19">
         <v>1</v>
@@ -1165,57 +1195,57 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="9" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B21" s="9" t="str">
-        <f>A30</f>
-        <v>1dc3caae-86cd-4f7b-828b-822bf4433c69</v>
+        <f>A31</f>
+        <v>96365fee-cafc-4099-a6cf-d68a5f08f8f3</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>A$13</f>
         <v>455f8b8a-adac-4db9-b3c1-5e355045fc50</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>65</v>
+      <c r="D21" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H21" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I21" s="19"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B22" s="9" t="str">
-        <f>A31</f>
-        <v>c8bde280-7ab7-4905-9a13-bb1711e7655d</v>
+        <f>A32</f>
+        <v>1dc3caae-86cd-4f7b-828b-822bf4433c69</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>A$13</f>
         <v>455f8b8a-adac-4db9-b3c1-5e355045fc50</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H22" s="19">
         <v>4</v>
@@ -1224,23 +1254,44 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="20"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="A23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="9" t="str">
+        <f>A33</f>
+        <v>c8bde280-7ab7-4905-9a13-bb1711e7655d</v>
+      </c>
+      <c r="C23" s="9" t="str">
+        <f>A$13</f>
+        <v>455f8b8a-adac-4db9-b3c1-5e355045fc50</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="19">
+        <v>1</v>
+      </c>
+      <c r="I23" s="19"/>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11">
@@ -1253,161 +1304,195 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="2"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C27" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="15" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C28" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F28" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G28" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H28" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I28" s="24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="17" t="s">
+    <row r="29" spans="1:11">
+      <c r="A29" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C29" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D29" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F29" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G29" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H29" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I29" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="19">
-        <v>1</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>72</v>
+      <c r="D30" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G30" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>75</v>
+        <v>84</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G31" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="19">
+        <v>4</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/security/RBAC_RESOURCE/report.query.all.xlsx
+++ b/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/security/RBAC_RESOURCE/report.query.all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-plugins-extension/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/security/RBAC_RESOURCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363DFBE0-BFE4-CB41-8E09-C47407D20B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A3197-04AF-F746-A977-CBCD30E1A708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50440" yWindow="-4660" windowWidth="39180" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="69080" yWindow="-800" windowWidth="52480" windowHeight="31640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -330,6 +330,58 @@
   <si>
     <t>/api/report/single-export/:key</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成单个报表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存单个报表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1c2437d6-9ce6-4d7c-b1f2-283665dac7d4</t>
+  </si>
+  <si>
+    <t>6d60350a-18d8-4804-8da7-1602987ed5f2</t>
+  </si>
+  <si>
+    <t>/api/report/single-instance/:key</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除单个报表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.report.single-instance-delete</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.report.single-instance-save</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>acd6a905-8350-4306-b566-bf742c3456ae</t>
+  </si>
+  <si>
+    <t>res.report.single-instance-save</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.report.single-instance-delete</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>13cc4a1e-5bc6-47c6-a3ae-19ecca6670f8</t>
   </si>
 </sst>
 </file>
@@ -520,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -578,7 +630,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -905,16 +956,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K33"/>
+  <dimension ref="A2:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="3" width="54.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="3" customWidth="1"/>
     <col min="6" max="6" width="38.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="24.5" style="4" bestFit="1" customWidth="1"/>
@@ -933,11 +984,11 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="7" t="s">
@@ -1002,11 +1053,11 @@
       <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
@@ -1042,7 +1093,7 @@
       <c r="D11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="2"/>
@@ -1095,15 +1146,15 @@
       <c r="B17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="15" t="s">
@@ -1168,7 +1219,7 @@
         <v>60</v>
       </c>
       <c r="B20" s="9" t="str">
-        <f>A30</f>
+        <f>A31</f>
         <v>0629d704-d193-4be0-8e85-d015ab37be7e</v>
       </c>
       <c r="C20" s="9" t="str">
@@ -1198,7 +1249,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="9" t="str">
-        <f>A31</f>
+        <f>A32</f>
         <v>96365fee-cafc-4099-a6cf-d68a5f08f8f3</v>
       </c>
       <c r="C21" s="9" t="str">
@@ -1228,7 +1279,7 @@
         <v>61</v>
       </c>
       <c r="B22" s="9" t="str">
-        <f>A32</f>
+        <f>A33</f>
         <v>1dc3caae-86cd-4f7b-828b-822bf4433c69</v>
       </c>
       <c r="C22" s="9" t="str">
@@ -1258,7 +1309,7 @@
         <v>72</v>
       </c>
       <c r="B23" s="9" t="str">
-        <f>A33</f>
+        <f>A34</f>
         <v>c8bde280-7ab7-4905-9a13-bb1711e7655d</v>
       </c>
       <c r="C23" s="9" t="str">
@@ -1284,23 +1335,63 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="20"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="9" t="str">
+        <f>A35</f>
+        <v>1c2437d6-9ce6-4d7c-b1f2-283665dac7d4</v>
+      </c>
+      <c r="C24" s="9" t="str">
+        <f>A$13</f>
+        <v>455f8b8a-adac-4db9-b3c1-5e355045fc50</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="19">
+        <v>8</v>
+      </c>
+      <c r="I24" s="19"/>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="2"/>
+      <c r="A25" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="9" t="str">
+        <f>A36</f>
+        <v>acd6a905-8350-4306-b566-bf742c3456ae</v>
+      </c>
+      <c r="C25" s="9" t="str">
+        <f>A$13</f>
+        <v>455f8b8a-adac-4db9-b3c1-5e355045fc50</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="19">
+        <v>12</v>
+      </c>
+      <c r="I25" s="19"/>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11">
@@ -1313,117 +1404,101 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B28" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C28" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="15" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D29" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F29" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G29" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H29" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I29" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="17" t="s">
+    <row r="30" spans="1:11">
+      <c r="A30" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D30" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E30" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F30" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G30" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="H30" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="I30" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="19">
-        <v>1</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="9" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>57</v>
@@ -1439,16 +1514,16 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="9" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>57</v>
@@ -1457,23 +1532,23 @@
         <v>70</v>
       </c>
       <c r="G32" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>57</v>
@@ -1482,17 +1557,92 @@
         <v>70</v>
       </c>
       <c r="G33" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/security/RBAC_RESOURCE/report.query.all.xlsx
+++ b/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/security/RBAC_RESOURCE/report.query.all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-plugins-extension/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/security/RBAC_RESOURCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A3197-04AF-F746-A977-CBCD30E1A708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9367FED-2DC9-F14A-9739-F0FD96453175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="69080" yWindow="-800" windowWidth="52480" windowHeight="31640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -382,6 +382,20 @@
   </si>
   <si>
     <t>13cc4a1e-5bc6-47c6-a3ae-19ecca6670f8</t>
+  </si>
+  <si>
+    <t>res.report.single-instance-fetch</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>b70ea3e6-6e3e-4646-8bfb-eb9559675428</t>
+  </si>
+  <si>
+    <t>a4766d89-b59e-4d71-a143-ec44da8a49f0</t>
+  </si>
+  <si>
+    <t>act.report.single-instance-fetch</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -956,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K36"/>
+  <dimension ref="A2:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1219,7 +1233,7 @@
         <v>60</v>
       </c>
       <c r="B20" s="9" t="str">
-        <f>A31</f>
+        <f t="shared" ref="B20:B26" si="0">A32</f>
         <v>0629d704-d193-4be0-8e85-d015ab37be7e</v>
       </c>
       <c r="C20" s="9" t="str">
@@ -1249,7 +1263,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="9" t="str">
-        <f>A32</f>
+        <f t="shared" si="0"/>
         <v>96365fee-cafc-4099-a6cf-d68a5f08f8f3</v>
       </c>
       <c r="C21" s="9" t="str">
@@ -1279,7 +1293,7 @@
         <v>61</v>
       </c>
       <c r="B22" s="9" t="str">
-        <f>A33</f>
+        <f t="shared" si="0"/>
         <v>1dc3caae-86cd-4f7b-828b-822bf4433c69</v>
       </c>
       <c r="C22" s="9" t="str">
@@ -1309,7 +1323,7 @@
         <v>72</v>
       </c>
       <c r="B23" s="9" t="str">
-        <f>A34</f>
+        <f t="shared" si="0"/>
         <v>c8bde280-7ab7-4905-9a13-bb1711e7655d</v>
       </c>
       <c r="C23" s="9" t="str">
@@ -1339,7 +1353,7 @@
         <v>93</v>
       </c>
       <c r="B24" s="9" t="str">
-        <f>A35</f>
+        <f t="shared" si="0"/>
         <v>1c2437d6-9ce6-4d7c-b1f2-283665dac7d4</v>
       </c>
       <c r="C24" s="9" t="str">
@@ -1369,7 +1383,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="9" t="str">
-        <f>A36</f>
+        <f t="shared" si="0"/>
         <v>acd6a905-8350-4306-b566-bf742c3456ae</v>
       </c>
       <c r="C25" s="9" t="str">
@@ -1395,12 +1409,33 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="2"/>
+      <c r="A26" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>b70ea3e6-6e3e-4646-8bfb-eb9559675428</v>
+      </c>
+      <c r="C26" s="9" t="str">
+        <f>A$13</f>
+        <v>455f8b8a-adac-4db9-b3c1-5e355045fc50</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="19">
+        <v>1</v>
+      </c>
+      <c r="I26" s="19"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11">
@@ -1413,117 +1448,101 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="2"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B29" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C29" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="15" t="s">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C30" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F30" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G30" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H30" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I30" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="17" t="s">
+    <row r="31" spans="1:11">
+      <c r="A31" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B31" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D31" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E31" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F31" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H31" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I31" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="19">
-        <v>1</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="9" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>57</v>
@@ -1539,16 +1558,16 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="9" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>57</v>
@@ -1557,23 +1576,23 @@
         <v>70</v>
       </c>
       <c r="G33" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>57</v>
@@ -1582,23 +1601,23 @@
         <v>70</v>
       </c>
       <c r="G34" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="9" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>57</v>
@@ -1614,16 +1633,16 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>57</v>
@@ -1632,17 +1651,67 @@
         <v>70</v>
       </c>
       <c r="G36" s="19">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="19">
+        <v>12</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/security/RBAC_RESOURCE/report.query.all.xlsx
+++ b/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/security/RBAC_RESOURCE/report.query.all.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-plugins-extension/Zero.Extension.Runtime.Report.DB/src/main/resources/plugins/zero-extension-runtime-report/security/RBAC_RESOURCE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\IDEA-xiangmu\workshop\zero-ws\zero-plugins-extension\Zero.Extension.Runtime.Report.DB\src\main\resources\plugins\zero-extension-runtime-report\security\RBAC_RESOURCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9367FED-2DC9-F14A-9739-F0FD96453175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E7DA67-81B3-43EA-AF69-9417937F6865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69080" yWindow="-800" windowWidth="52480" windowHeight="31640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -396,6 +383,35 @@
   <si>
     <t>act.report.single-instance-fetch</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>18f7c8eb-6c5d-4b6a-9374-9c96a2c46ac5</t>
+  </si>
+  <si>
+    <t>perm.report.out-pdf</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表管理/导出PDF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bce5d643-6ca4-4199-b1a5-b31ab608eeea</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3b461e3-9977-48e5-8b06-1ac4def2b6eb</t>
+  </si>
+  <si>
+    <t>/api/export-pdf</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出PDF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7929c1b4-5bca-475e-9508-f7342cbb9401</t>
   </si>
 </sst>
 </file>
@@ -586,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -635,9 +651,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -671,7 +684,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -970,24 +983,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K38"/>
+  <dimension ref="A2:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="3" width="54.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="54.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="3" customWidth="1"/>
     <col min="6" max="6" width="38.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="24.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="2" customWidth="1"/>
     <col min="13" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -998,11 +1011,11 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="7" t="s">
@@ -1032,7 +1045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="21">
       <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
@@ -1046,7 +1059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="21">
       <c r="A6" s="9" t="s">
         <v>53</v>
       </c>
@@ -1057,6 +1070,20 @@
         <v>75</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1067,11 +1094,11 @@
       <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
@@ -1107,7 +1134,7 @@
       <c r="D11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="2"/>
@@ -1148,10 +1175,21 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="13" t="s">
@@ -1160,15 +1198,15 @@
       <c r="B17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="15" t="s">
@@ -1209,13 +1247,13 @@
       <c r="C19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G19" s="17" t="s">
@@ -1240,13 +1278,13 @@
         <f>A12</f>
         <v>a678eac2-2fcf-489d-baeb-cf90537899b9</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>66</v>
       </c>
       <c r="G20" s="19" t="s">
@@ -1267,16 +1305,16 @@
         <v>96365fee-cafc-4099-a6cf-d68a5f08f8f3</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>A$13</f>
+        <f t="shared" ref="C21:C26" si="1">A$13</f>
         <v>455f8b8a-adac-4db9-b3c1-5e355045fc50</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G21" s="19" t="s">
@@ -1297,7 +1335,7 @@
         <v>1dc3caae-86cd-4f7b-828b-822bf4433c69</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>A$13</f>
+        <f t="shared" si="1"/>
         <v>455f8b8a-adac-4db9-b3c1-5e355045fc50</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -1306,7 +1344,7 @@
       <c r="E22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>76</v>
       </c>
       <c r="G22" s="19" t="s">
@@ -1327,7 +1365,7 @@
         <v>c8bde280-7ab7-4905-9a13-bb1711e7655d</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>A$13</f>
+        <f t="shared" si="1"/>
         <v>455f8b8a-adac-4db9-b3c1-5e355045fc50</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -1336,7 +1374,7 @@
       <c r="E23" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="21" t="s">
         <v>89</v>
       </c>
       <c r="G23" s="19" t="s">
@@ -1357,7 +1395,7 @@
         <v>1c2437d6-9ce6-4d7c-b1f2-283665dac7d4</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>A$13</f>
+        <f t="shared" si="1"/>
         <v>455f8b8a-adac-4db9-b3c1-5e355045fc50</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -1366,7 +1404,7 @@
       <c r="E24" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="21" t="s">
         <v>94</v>
       </c>
       <c r="G24" s="19" t="s">
@@ -1387,7 +1425,7 @@
         <v>acd6a905-8350-4306-b566-bf742c3456ae</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>A$13</f>
+        <f t="shared" si="1"/>
         <v>455f8b8a-adac-4db9-b3c1-5e355045fc50</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -1396,7 +1434,7 @@
       <c r="E25" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>94</v>
       </c>
       <c r="G25" s="19" t="s">
@@ -1417,7 +1455,7 @@
         <v>b70ea3e6-6e3e-4646-8bfb-eb9559675428</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>A$13</f>
+        <f t="shared" si="1"/>
         <v>455f8b8a-adac-4db9-b3c1-5e355045fc50</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -1426,7 +1464,7 @@
       <c r="E26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="21" t="s">
         <v>94</v>
       </c>
       <c r="G26" s="19" t="s">
@@ -1439,12 +1477,31 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="19">
+        <v>1</v>
+      </c>
+      <c r="I27" s="19"/>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11">
@@ -1463,15 +1520,15 @@
       <c r="B29" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="15" t="s">
@@ -1480,7 +1537,7 @@
       <c r="B30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -1492,13 +1549,13 @@
       <c r="F30" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="22" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1512,13 +1569,13 @@
       <c r="C31" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -1541,7 +1598,7 @@
       <c r="C32" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>69</v>
       </c>
       <c r="E32" s="19" t="s">
@@ -1566,7 +1623,7 @@
       <c r="C33" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>85</v>
       </c>
       <c r="E33" s="19" t="s">
@@ -1705,6 +1762,31 @@
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
